--- a/storage/app/public/imports/DatabaseSeeder.xlsx
+++ b/storage/app/public/imports/DatabaseSeeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dayong\public\storage\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196FE28-2B6F-458E-8CA7-4A06B24D9297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6183023C-7785-42A3-B2A7-9700A9C20DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{72A88DDE-8111-4A1E-B739-F2F4CA7FD119}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{72A88DDE-8111-4A1E-B739-F2F4CA7FD119}"/>
   </bookViews>
   <sheets>
     <sheet name="Usertypes" sheetId="5" r:id="rId1"/>
@@ -1396,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62750E08-8230-4924-95E5-39A7F17EECD6}">
   <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2268,9 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD2B10-2BD3-4DBC-B659-7BE7D4617E5F}">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/storage/app/public/imports/DatabaseSeeder.xlsx
+++ b/storage/app/public/imports/DatabaseSeeder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dayong\public\storage\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dayong\storage\app\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6183023C-7785-42A3-B2A7-9700A9C20DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD3FC0-47CF-41BC-8BC6-B0BA2055C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{72A88DDE-8111-4A1E-B739-F2F4CA7FD119}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{72A88DDE-8111-4A1E-B739-F2F4CA7FD119}"/>
   </bookViews>
   <sheets>
     <sheet name="Usertypes" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="181">
   <si>
     <t>Usertype</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Encoder</t>
-  </si>
-  <si>
     <t>Marketting Account Staff</t>
   </si>
   <si>
@@ -533,6 +530,63 @@
   </si>
   <si>
     <t>Amount Maximum</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Entry Clerk</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Abenoja</t>
+  </si>
+  <si>
+    <t>jessicabenoja@gmail.com</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Alacre</t>
+  </si>
+  <si>
+    <t>anniealacre@gmail.com</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Macrine</t>
+  </si>
+  <si>
+    <t>jabenoja</t>
+  </si>
+  <si>
+    <t>aalacre</t>
+  </si>
+  <si>
+    <t>macrine</t>
+  </si>
+  <si>
+    <t>macrinebarrera@gmail.com</t>
+  </si>
+  <si>
+    <t>Poliquit</t>
+  </si>
+  <si>
+    <t>Estrella</t>
+  </si>
+  <si>
+    <t>epoliquit</t>
+  </si>
+  <si>
+    <t>estrellapoliquit@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -574,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -864,56 +918,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,22 +1012,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,9 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1695B4-8C00-449E-84B6-53B24E65C876}">
-  <dimension ref="B1:B5"/>
+  <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1379,12 +1384,17 @@
     </row>
     <row r="4" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
-        <v>15</v>
+    <row r="6" spans="2:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1394,15 +1404,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62750E08-8230-4924-95E5-39A7F17EECD6}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="7" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="21.5546875" style="7" customWidth="1"/>
@@ -1419,443 +1429,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="2:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="F3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="9">
         <v>9363362225</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="31">
+      <c r="J3" s="9"/>
+      <c r="K3" s="33">
         <v>36266</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="13"/>
+      <c r="L3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="15" t="s">
+    <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="D15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" s="15" t="s">
+      <c r="M16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{2C8C2D22-651B-4CBD-B155-157501D52529}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C18" xr:uid="{2C8C2D22-651B-4CBD-B155-157501D52529}">
       <formula1>UsertypesList</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N14" xr:uid="{7655F178-6AC2-465F-B8FA-15676D8B81F7}">
@@ -1885,377 +2023,377 @@
   <sheetData>
     <row r="1" spans="2:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="E4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="E5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="E6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="E7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="E8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="E9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="E10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="E11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="E13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="E15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="E16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="E17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="E18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="E19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+      <c r="E21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="E22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD2B10-2BD3-4DBC-B659-7BE7D4617E5F}">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2281,44 +2419,44 @@
     <col min="7" max="7" width="20.21875" style="7" customWidth="1"/>
     <col min="8" max="10" width="23.77734375" style="7" customWidth="1"/>
     <col min="11" max="12" width="16.21875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="I2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>7</v>
@@ -2326,491 +2464,875 @@
     </row>
     <row r="3" spans="2:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="9">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19">
+        <v>60</v>
+      </c>
+      <c r="G3" s="19">
+        <v>18</v>
+      </c>
+      <c r="H3" s="19">
+        <v>65</v>
+      </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="J3" s="19">
+        <v>180</v>
+      </c>
+      <c r="K3" s="19">
+        <v>180</v>
+      </c>
       <c r="L3" s="19"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>18</v>
+      </c>
+      <c r="F4" s="20">
+        <v>60</v>
+      </c>
+      <c r="G4" s="20">
+        <v>18</v>
+      </c>
+      <c r="H4" s="20">
+        <v>65</v>
+      </c>
       <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="J4" s="20">
+        <v>180</v>
+      </c>
+      <c r="K4" s="20">
+        <v>190</v>
+      </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="13"/>
+      <c r="M4" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="5" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>18</v>
+      </c>
+      <c r="F5" s="20">
+        <v>60</v>
+      </c>
+      <c r="G5" s="20">
+        <v>18</v>
+      </c>
+      <c r="H5" s="20">
+        <v>65</v>
+      </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="20">
+        <v>180</v>
+      </c>
+      <c r="K5" s="20">
+        <v>280</v>
+      </c>
       <c r="L5" s="20"/>
-      <c r="M5" s="13"/>
+      <c r="M5" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="6" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>18</v>
+      </c>
+      <c r="F6" s="20">
+        <v>60</v>
+      </c>
+      <c r="G6" s="20">
+        <v>18</v>
+      </c>
+      <c r="H6" s="20">
+        <v>65</v>
+      </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="20">
+        <v>180</v>
+      </c>
+      <c r="K6" s="20">
+        <v>290</v>
+      </c>
       <c r="L6" s="20"/>
-      <c r="M6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20">
+        <v>60</v>
+      </c>
+      <c r="G7" s="20">
+        <v>18</v>
+      </c>
+      <c r="H7" s="20">
+        <v>65</v>
+      </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="20">
+        <v>180</v>
+      </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="13"/>
+      <c r="M7" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>18</v>
+      </c>
+      <c r="F8" s="20">
+        <v>60</v>
+      </c>
+      <c r="G8" s="20">
+        <v>18</v>
+      </c>
+      <c r="H8" s="20">
+        <v>65</v>
+      </c>
       <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="20">
+        <v>180</v>
+      </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>18</v>
+      </c>
+      <c r="F9" s="20">
+        <v>60</v>
+      </c>
+      <c r="G9" s="20">
+        <v>18</v>
+      </c>
+      <c r="H9" s="20">
+        <v>65</v>
+      </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="20">
+        <v>180</v>
+      </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20">
+        <v>60</v>
+      </c>
+      <c r="G10" s="20">
+        <v>18</v>
+      </c>
+      <c r="H10" s="20">
+        <v>65</v>
+      </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="20">
+        <v>180</v>
+      </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>18</v>
+      </c>
+      <c r="F11" s="20">
+        <v>60</v>
+      </c>
+      <c r="G11" s="20">
+        <v>18</v>
+      </c>
+      <c r="H11" s="20">
+        <v>65</v>
+      </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="20">
+        <v>180</v>
+      </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>18</v>
+      </c>
+      <c r="F12" s="20">
+        <v>60</v>
+      </c>
+      <c r="G12" s="20">
+        <v>18</v>
+      </c>
+      <c r="H12" s="20">
+        <v>65</v>
+      </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="20">
+        <v>180</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="13"/>
+      <c r="M12" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="13" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>18</v>
+      </c>
+      <c r="F13" s="20">
+        <v>60</v>
+      </c>
+      <c r="G13" s="20">
+        <v>18</v>
+      </c>
+      <c r="H13" s="20">
+        <v>65</v>
+      </c>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="20">
+        <v>180</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="14" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>18</v>
+      </c>
+      <c r="F14" s="20">
         <v>60</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="20">
+        <v>18</v>
+      </c>
+      <c r="H14" s="20">
+        <v>65</v>
+      </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20">
+        <v>180</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="15" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>18</v>
+      </c>
+      <c r="F15" s="20">
+        <v>60</v>
+      </c>
+      <c r="G15" s="20">
+        <v>18</v>
+      </c>
+      <c r="H15" s="20">
+        <v>65</v>
+      </c>
       <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="20">
+        <v>180</v>
+      </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="13"/>
+      <c r="M15" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20">
+        <v>60</v>
+      </c>
+      <c r="G16" s="20">
+        <v>18</v>
+      </c>
+      <c r="H16" s="20">
+        <v>65</v>
+      </c>
       <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="20">
+        <v>180</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="13"/>
+      <c r="M16" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20">
+        <v>60</v>
+      </c>
+      <c r="G17" s="20">
+        <v>18</v>
+      </c>
+      <c r="H17" s="20">
+        <v>65</v>
+      </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="20">
+        <v>180</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="18" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>18</v>
+      </c>
+      <c r="F18" s="20">
+        <v>60</v>
+      </c>
+      <c r="G18" s="20">
+        <v>18</v>
+      </c>
+      <c r="H18" s="20">
+        <v>65</v>
+      </c>
       <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="20">
+        <v>180</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="13"/>
+      <c r="M18" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>18</v>
+      </c>
+      <c r="F19" s="20">
+        <v>60</v>
+      </c>
+      <c r="G19" s="20">
+        <v>18</v>
+      </c>
+      <c r="H19" s="20">
+        <v>65</v>
+      </c>
       <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="20">
+        <v>180</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="20" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>18</v>
+      </c>
+      <c r="F20" s="20">
+        <v>60</v>
+      </c>
+      <c r="G20" s="20">
+        <v>18</v>
+      </c>
+      <c r="H20" s="20">
+        <v>65</v>
+      </c>
       <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="20">
+        <v>180</v>
+      </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="13"/>
+      <c r="M20" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>18</v>
+      </c>
+      <c r="F21" s="20">
+        <v>60</v>
+      </c>
+      <c r="G21" s="20">
+        <v>18</v>
+      </c>
+      <c r="H21" s="20">
+        <v>65</v>
+      </c>
       <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="20">
+        <v>180</v>
+      </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="22" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>18</v>
+      </c>
+      <c r="F22" s="20">
+        <v>60</v>
+      </c>
+      <c r="G22" s="20">
+        <v>18</v>
+      </c>
+      <c r="H22" s="20">
+        <v>65</v>
+      </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="20">
+        <v>180</v>
+      </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>18</v>
+      </c>
+      <c r="F23" s="20">
+        <v>60</v>
+      </c>
+      <c r="G23" s="20">
+        <v>18</v>
+      </c>
+      <c r="H23" s="20">
+        <v>65</v>
+      </c>
       <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="20">
+        <v>180</v>
+      </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>18</v>
+      </c>
+      <c r="F24" s="20">
+        <v>60</v>
+      </c>
+      <c r="G24" s="20">
+        <v>18</v>
+      </c>
+      <c r="H24" s="20">
+        <v>65</v>
+      </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="J24" s="20">
+        <v>180</v>
+      </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="13"/>
+      <c r="M24" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="25" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>18</v>
+      </c>
+      <c r="F25" s="20">
+        <v>60</v>
+      </c>
+      <c r="G25" s="20">
+        <v>18</v>
+      </c>
+      <c r="H25" s="20">
+        <v>65</v>
+      </c>
       <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="20">
+        <v>180</v>
+      </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>18</v>
+      </c>
+      <c r="F26" s="20">
+        <v>60</v>
+      </c>
+      <c r="G26" s="20">
+        <v>18</v>
+      </c>
+      <c r="H26" s="20">
+        <v>65</v>
+      </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="20">
+        <v>180</v>
+      </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="13"/>
+      <c r="M26" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12">
+        <v>18</v>
+      </c>
+      <c r="F27" s="20">
+        <v>60</v>
+      </c>
+      <c r="G27" s="20">
+        <v>18</v>
+      </c>
+      <c r="H27" s="20">
+        <v>65</v>
+      </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="20">
+        <v>180</v>
+      </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="13"/>
+      <c r="M27" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="28" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="D28" s="12">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>18</v>
+      </c>
+      <c r="F28" s="20">
+        <v>60</v>
+      </c>
+      <c r="G28" s="20">
+        <v>18</v>
+      </c>
+      <c r="H28" s="20">
+        <v>65</v>
+      </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="J28" s="20">
+        <v>180</v>
+      </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="13"/>
+      <c r="M28" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="29" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>18</v>
+      </c>
+      <c r="F29" s="21">
+        <v>60</v>
+      </c>
+      <c r="G29" s="21">
+        <v>18</v>
+      </c>
+      <c r="H29" s="21">
+        <v>65</v>
+      </c>
       <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="J29" s="21">
+        <v>180</v>
+      </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="16"/>
+      <c r="M29" s="16" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2838,7 +3360,7 @@
     <row r="1" spans="2:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2847,23 +3369,23 @@
         <v>1</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="9">
         <v>40</v>
@@ -2872,12 +3394,12 @@
     </row>
     <row r="4" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="12">
         <v>40</v>
@@ -2886,12 +3408,12 @@
     </row>
     <row r="5" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="12">
         <v>40</v>
@@ -2900,12 +3422,12 @@
     </row>
     <row r="6" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="12">
         <v>40</v>
@@ -2914,12 +3436,12 @@
     </row>
     <row r="7" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="12">
         <v>40</v>
@@ -2928,12 +3450,12 @@
     </row>
     <row r="8" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="12">
         <v>40</v>
@@ -2942,12 +3464,12 @@
     </row>
     <row r="9" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="12">
         <v>50</v>
@@ -2956,12 +3478,12 @@
     </row>
     <row r="10" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="12">
         <v>35</v>
@@ -2970,12 +3492,12 @@
     </row>
     <row r="11" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="12">
         <v>35</v>
@@ -2984,12 +3506,12 @@
     </row>
     <row r="12" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="12">
         <v>35</v>
@@ -2998,12 +3520,12 @@
     </row>
     <row r="13" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="12">
         <v>35</v>
@@ -3012,7 +3534,7 @@
     </row>
     <row r="14" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3026,7 +3548,7 @@
     </row>
     <row r="15" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3040,7 +3562,7 @@
     </row>
     <row r="16" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3054,7 +3576,7 @@
     </row>
     <row r="17" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -3068,12 +3590,12 @@
     </row>
     <row r="18" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="12">
         <v>15</v>
@@ -3082,12 +3604,12 @@
     </row>
     <row r="19" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="12">
         <v>15</v>
@@ -3096,12 +3618,12 @@
     </row>
     <row r="20" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="12">
         <v>15</v>
@@ -3110,12 +3632,12 @@
     </row>
     <row r="21" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="12">
         <v>15</v>
@@ -3124,12 +3646,12 @@
     </row>
     <row r="22" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="12">
         <v>15</v>
@@ -3138,12 +3660,12 @@
     </row>
     <row r="23" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="12">
         <v>15</v>
@@ -3152,12 +3674,12 @@
     </row>
     <row r="24" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="12">
         <v>12</v>
@@ -3166,12 +3688,12 @@
     </row>
     <row r="25" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="12">
         <v>10</v>
@@ -3180,12 +3702,12 @@
     </row>
     <row r="26" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="12">
         <v>10</v>
@@ -3194,12 +3716,12 @@
     </row>
     <row r="27" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" s="12">
         <v>10</v>
@@ -3208,12 +3730,12 @@
     </row>
     <row r="28" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="12">
         <v>12</v>
@@ -3222,12 +3744,12 @@
     </row>
     <row r="29" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="12">
         <v>40</v>
@@ -3236,12 +3758,12 @@
     </row>
     <row r="30" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="12">
         <v>40</v>
@@ -3250,12 +3772,12 @@
     </row>
     <row r="31" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="12">
         <v>35</v>
@@ -3264,12 +3786,12 @@
     </row>
     <row r="32" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="12">
         <v>15</v>
@@ -3278,12 +3800,12 @@
     </row>
     <row r="33" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="12">
         <v>15</v>
@@ -3292,12 +3814,12 @@
     </row>
     <row r="34" spans="2:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F34" s="15">
         <v>10</v>
